--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-574356.3324008826</v>
+        <v>-576837.2522263422</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1373,22 +1373,22 @@
         <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
-        <v>300.5652383724873</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545851</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001941</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579961</v>
+        <v>14.65678318579957</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104947</v>
+        <v>82.26761520104945</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524938</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717756</v>
+        <v>167.1898400500641</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913427</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
         <v>359.3177920689272</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.911833594811</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115015</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>121.695326431086</v>
@@ -1537,16 +1537,16 @@
         <v>119.5138160594428</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358049</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>139.1056616719019</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271172</v>
+        <v>69.43227382271171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292099</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443156</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890429</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
-        <v>124.2170503402029</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019108</v>
+        <v>41.50208448995895</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649685</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9558991545851</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
         <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579957</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104949</v>
+        <v>82.26761520104944</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524938</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830086</v>
+        <v>156.9009475664141</v>
       </c>
       <c r="W14" t="n">
-        <v>14.78118554726632</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3177920689272</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.911833594811</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>87.48152781447573</v>
+        <v>140.3266745115015</v>
       </c>
       <c r="D16" t="n">
         <v>121.695326431086</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>139.1056616719019</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292098</v>
+        <v>62.01200608292095</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443156</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890429</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
         <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367017</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649685</v>
+        <v>183.7397442553166</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577617</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149641</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665429</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477346</v>
+        <v>257.8312993987481</v>
       </c>
       <c r="H17" t="n">
-        <v>163.0060483798935</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245688</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531831</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>253.856975264416</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3426554503346</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290891</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249343</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085025</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721232</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G19" t="n">
-        <v>92.1305250533093</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860186</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411916</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432839</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S19" t="n">
-        <v>115.873742125723</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704503</v>
+        <v>208.0533602654133</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181091</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308721</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.0890643413379</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577617</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>233.6711757635806</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149641</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665429</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477346</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245688</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531831</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>258.3738041957117</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503346</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414546</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290891</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249343</v>
+        <v>137.1198840074569</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085025</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721232</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G22" t="n">
-        <v>92.1305250533093</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860186</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411916</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432839</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S22" t="n">
-        <v>115.873742125723</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704503</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>240.6420543130712</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308721</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463759</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577617</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149641</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665429</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477346</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245691</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531831</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3426554503346</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247764</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290891</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249343</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085025</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721232</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G25" t="n">
-        <v>92.1305250533093</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860186</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411917</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.0368694643284</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S25" t="n">
-        <v>115.873742125723</v>
+        <v>178.2734363206866</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704503</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2423601181091</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308721</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.0890643413374</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2555,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958316</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V26" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247751</v>
+        <v>18.81721868247842</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2716,22 +2716,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797653</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043386</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572814</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124544</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145467</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2767,7 +2767,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2776,10 +2776,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958355</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414546</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429028</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925782</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136067</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253487</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592157</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007104</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115154</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503643</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383253</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052307</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010759</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846441</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482648</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092326</v>
+        <v>111.8803261135827</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621582</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333693</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775081</v>
       </c>
       <c r="V37" t="n">
-        <v>196.6598613601169</v>
+        <v>154.4529230957232</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084862</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609324</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.89993312399</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007093</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>90.95618068285768</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092326</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621582</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>196.6598613601169</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007087</v>
+        <v>11.503041560071</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383249</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052303</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010755</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846421</v>
+        <v>90.95618068285712</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092326</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621582</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333707</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480644</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>231.0452163728799</v>
+        <v>188.8382781084862</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>120.89993312399</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007093</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V44" t="n">
         <v>230.06753824203</v>
@@ -4040,7 +4040,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C46" t="n">
-        <v>111.7690391349167</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621583</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333694</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>164.0711673124575</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4198,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1768.754402051653</v>
+        <v>1500.637597194506</v>
       </c>
       <c r="C11" t="n">
-        <v>1426.983952370965</v>
+        <v>1158.867147513818</v>
       </c>
       <c r="D11" t="n">
-        <v>1123.382701489664</v>
+        <v>827.7935161667912</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489664</v>
+        <v>469.1973308282705</v>
       </c>
       <c r="F11" t="n">
-        <v>739.58886395978</v>
+        <v>469.1973308282705</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645001</v>
+        <v>81.31694793299062</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299108</v>
+        <v>81.31694793299062</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395989</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039935</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573495</v>
+        <v>2894.842913726739</v>
       </c>
       <c r="V11" t="n">
-        <v>2837.383130573495</v>
+        <v>2894.842913726739</v>
       </c>
       <c r="W11" t="n">
-        <v>2837.383130573495</v>
+        <v>2569.266325716349</v>
       </c>
       <c r="X11" t="n">
-        <v>2491.109439572139</v>
+        <v>2222.992634714993</v>
       </c>
       <c r="Y11" t="n">
-        <v>2128.162174856051</v>
+        <v>1860.045369998904</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.2440901013236</v>
+        <v>639.827213717372</v>
       </c>
       <c r="C13" t="n">
-        <v>640.4999744331403</v>
+        <v>639.827213717372</v>
       </c>
       <c r="D13" t="n">
-        <v>517.5754022805282</v>
+        <v>516.90264156476</v>
       </c>
       <c r="E13" t="n">
-        <v>396.8543759578587</v>
+        <v>396.1816152420905</v>
       </c>
       <c r="F13" t="n">
-        <v>277.1564957196719</v>
+        <v>396.1816152420905</v>
       </c>
       <c r="G13" t="n">
-        <v>136.6457263541145</v>
+        <v>255.6708458765331</v>
       </c>
       <c r="H13" t="n">
         <v>136.6457263541145</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.285694000374</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
         <v>368.9238220705056</v>
@@ -5209,40 +5209,40 @@
         <v>1082.942556361061</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
         <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075785</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162334</v>
+        <v>1976.008292145084</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991584</v>
+        <v>1781.433743974333</v>
       </c>
       <c r="U13" t="n">
-        <v>1718.795353991584</v>
+        <v>1519.5229443597</v>
       </c>
       <c r="V13" t="n">
-        <v>1593.323585971177</v>
+        <v>1292.030523413537</v>
       </c>
       <c r="W13" t="n">
-        <v>1331.09848319394</v>
+        <v>1029.805420636299</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.300999555646</v>
+        <v>987.8841231716946</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.7004876718397</v>
+        <v>794.2836112878881</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1796.226782517379</v>
+        <v>1511.030417885062</v>
       </c>
       <c r="C14" t="n">
-        <v>1454.456332836691</v>
+        <v>1169.259968204374</v>
       </c>
       <c r="D14" t="n">
-        <v>1123.382701489664</v>
+        <v>838.1863368573472</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.382701489664</v>
+        <v>838.1863368573472</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597802</v>
+        <v>454.3924993274633</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645002</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>81.3169479329911</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395991</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039937</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573497</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.51231048965</v>
+        <v>2905.235734417296</v>
       </c>
       <c r="W14" t="n">
-        <v>2518.581820037866</v>
+        <v>2579.659146406905</v>
       </c>
       <c r="X14" t="n">
-        <v>2518.581820037866</v>
+        <v>2233.385455405549</v>
       </c>
       <c r="Y14" t="n">
-        <v>2155.634555321777</v>
+        <v>1870.43819068946</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1702.09613355694</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>1527.643104275813</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>1378.708694614562</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>936.5735814686095</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>846.0716871064769</v>
+        <v>85.51940803064539</v>
       </c>
       <c r="I15" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>1159.005863978979</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L15" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>418.3126375609349</v>
+        <v>781.5713293855554</v>
       </c>
       <c r="C16" t="n">
-        <v>329.9474579503531</v>
+        <v>639.827213717372</v>
       </c>
       <c r="D16" t="n">
-        <v>207.0228857977409</v>
+        <v>516.90264156476</v>
       </c>
       <c r="E16" t="n">
-        <v>207.0228857977409</v>
+        <v>396.1816152420905</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0228857977409</v>
+        <v>396.1816152420905</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218345</v>
+        <v>255.6708458765331</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218345</v>
+        <v>136.6457263541145</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705055</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402567</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5470,16 +5470,16 @@
         <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.392133430788</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535514</v>
+        <v>967.1670306535519</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3695470152576</v>
+        <v>967.1670306535519</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7690351314511</v>
+        <v>781.5713293855554</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1797.03101260432</v>
+        <v>1775.325244677776</v>
       </c>
       <c r="C17" t="n">
-        <v>1502.710195871706</v>
+        <v>1481.004427945162</v>
       </c>
       <c r="D17" t="n">
-        <v>1219.086197472753</v>
+        <v>1197.380429546208</v>
       </c>
       <c r="E17" t="n">
-        <v>907.9396450823052</v>
+        <v>886.2338771557611</v>
       </c>
       <c r="F17" t="n">
-        <v>571.5954405004945</v>
+        <v>549.8896725739505</v>
       </c>
       <c r="G17" t="n">
-        <v>231.164690553288</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417717</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281943</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="W17" t="n">
-        <v>2723.310842281943</v>
+        <v>2701.605074355399</v>
       </c>
       <c r="X17" t="n">
-        <v>2424.48678422866</v>
+        <v>2402.781016302116</v>
       </c>
       <c r="Y17" t="n">
-        <v>2108.989152460646</v>
+        <v>2087.283384534101</v>
       </c>
     </row>
     <row r="18">
@@ -5568,70 +5568,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872292</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671191</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625803</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879841</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978706</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803865</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604119</v>
+        <v>89.1960934060411</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5701,22 +5701,22 @@
         <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817305</v>
+        <v>822.2794225454044</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.128543609672</v>
+        <v>676.1285436096713</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1797.031012604321</v>
+        <v>1571.696340267698</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934038</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="D20" t="n">
         <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446366</v>
+        <v>966.2289711446363</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628259</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156194</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5765,37 +5765,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344065</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936084</v>
+        <v>3194.269774201191</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417717</v>
+        <v>3015.380997682823</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281944</v>
+        <v>2758.95981054705</v>
       </c>
       <c r="W20" t="n">
-        <v>2723.310842281944</v>
+        <v>2497.976169945321</v>
       </c>
       <c r="X20" t="n">
-        <v>2424.486784228661</v>
+        <v>2199.152111892038</v>
       </c>
       <c r="Y20" t="n">
-        <v>2108.989152460646</v>
+        <v>1883.654480124023</v>
       </c>
     </row>
     <row r="21">
@@ -5820,37 +5820,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872292</v>
+        <v>632.1517731235554</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671191</v>
+        <v>537.8572904034454</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625803</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879841</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978706</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803865</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604119</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5944,16 +5944,16 @@
         <v>1433.475525199205</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064789</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356256</v>
+        <v>1038.657267371952</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454052</v>
+        <v>885.3094166817311</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.128543609672</v>
+        <v>739.158537745998</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056951</v>
+        <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324336</v>
+        <v>1567.865160324335</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925383</v>
+        <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349351</v>
+        <v>973.094609534935</v>
       </c>
       <c r="F23" t="n">
         <v>636.7504049531244</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059183</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
         <v>73.3777548224824</v>
@@ -5987,28 +5987,28 @@
         <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>388.481326152851</v>
       </c>
       <c r="K23" t="n">
-        <v>916.9802179168073</v>
+        <v>722.3006998426976</v>
       </c>
       <c r="L23" t="n">
-        <v>1383.526753844413</v>
+        <v>1173.334913091107</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516338</v>
+        <v>1706.866817763031</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.83747557512</v>
+        <v>2253.645634821813</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454457</v>
+        <v>2756.618105701151</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3151.392472058329</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567318</v>
+        <v>3609.870674567317</v>
       </c>
       <c r="R23" t="n">
         <v>3668.88774112412</v>
@@ -6020,19 +6020,19 @@
         <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932665</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681291</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913276</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714078</v>
+        <v>948.4094928714077</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902808</v>
+        <v>773.9564635902807</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290295</v>
+        <v>625.0220539290294</v>
       </c>
       <c r="E24" t="n">
-        <v>465.784598923574</v>
+        <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.250040950459</v>
+        <v>319.2500409504588</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830771</v>
+        <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094466</v>
+        <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
         <v>73.3777548224824</v>
@@ -6069,13 +6069,13 @@
         <v>167.0550243130998</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934469</v>
+        <v>405.3192232934471</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061123</v>
+        <v>772.0173836061126</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.293708828428</v>
+        <v>1219.293708828429</v>
       </c>
       <c r="N24" t="n">
         <v>1692.816752382883</v>
@@ -6090,10 +6090,10 @@
         <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516156</v>
+        <v>2571.774827516155</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009636</v>
+        <v>2442.336941009635</v>
       </c>
       <c r="T24" t="n">
         <v>2249.693940687491</v>
@@ -6105,7 +6105,7 @@
         <v>1786.473985590164</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861963</v>
+        <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
         <v>1324.38512865643</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775281</v>
+        <v>575.9874173775275</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574182</v>
+        <v>481.6929346574176</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528793</v>
+        <v>406.2179954528788</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782831</v>
+        <v>332.9466020782827</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881696</v>
+        <v>260.6983547881694</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706855</v>
+        <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634015</v>
+        <v>96.06173179634006</v>
       </c>
       <c r="I25" t="n">
         <v>73.3777548224824</v>
@@ -6148,19 +6148,19 @@
         <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182943</v>
+        <v>322.4875702182944</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667904</v>
+        <v>639.0473686667906</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663394</v>
+        <v>983.2044142663397</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
       </c>
       <c r="O25" t="n">
-        <v>1623.942389892617</v>
+        <v>1623.942389892618</v>
       </c>
       <c r="P25" t="n">
         <v>1856.549890326277</v>
@@ -6172,25 +6172,25 @@
         <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1738.897251342413</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1591.772336119737</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1377.311169453177</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591413</v>
+        <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.522905762249</v>
+        <v>982.4929116259236</v>
       </c>
       <c r="X25" t="n">
-        <v>892.175055072029</v>
+        <v>829.1450609357033</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999709</v>
+        <v>682.9941819999702</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697162</v>
@@ -6218,58 +6218,58 @@
         <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557147</v>
       </c>
       <c r="K26" t="n">
-        <v>822.9179334642254</v>
+        <v>603.8454215455613</v>
       </c>
       <c r="L26" t="n">
-        <v>1273.952146712634</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1807.484051384559</v>
+        <v>1986.936041136907</v>
       </c>
       <c r="N26" t="n">
-        <v>2787.236323611206</v>
+        <v>2533.714858195689</v>
       </c>
       <c r="O26" t="n">
-        <v>3290.208794490542</v>
+        <v>3036.687329075026</v>
       </c>
       <c r="P26" t="n">
-        <v>3684.983160847721</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456153</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644883</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032371</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977816</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246666</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572847</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951522</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6318,34 +6318,34 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997848</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590363</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083843</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761699</v>
       </c>
       <c r="U27" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.395255896114</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.243147664372</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.00579093617</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730637</v>
       </c>
       <c r="Y27" t="n">
         <v>1124.393991965683</v>
@@ -6358,67 +6358,67 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.614500289966</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973124</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982154</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350171</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308442</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481262</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167328</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,16 +6449,16 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
         <v>437.4316968760676</v>
@@ -6473,10 +6473,10 @@
         <v>1755.817188486248</v>
       </c>
       <c r="N29" t="n">
-        <v>2577.0444828579</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O29" t="n">
-        <v>3080.016953737237</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P29" t="n">
         <v>3474.791320094415</v>
@@ -6485,13 +6485,13 @@
         <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
@@ -6503,10 +6503,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6683,19 +6683,19 @@
         <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557148</v>
@@ -6704,37 +6704,37 @@
         <v>603.8454215455613</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1326.966459396847</v>
       </c>
       <c r="M32" t="n">
-        <v>1986.936041136908</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N32" t="n">
-        <v>2533.714858195691</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O32" t="n">
-        <v>3036.687329075028</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6743,7 +6743,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6753,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997848</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D34" t="n">
         <v>549.9474938257041</v>
@@ -6844,28 +6844,28 @@
         <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973139</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6892,16 +6892,16 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519667</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,67 +6920,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -7005,22 +7005,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>599.6022649647791</v>
+        <v>642.2355359389139</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368722</v>
+        <v>571.9707875848502</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245365</v>
+        <v>520.5255827463577</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159868</v>
+        <v>471.2839237378078</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>423.0654108137406</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O37" t="n">
         <v>1617.076751502319</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V37" t="n">
-        <v>1322.10716072584</v>
+        <v>1167.397562552289</v>
       </c>
       <c r="W37" t="n">
-        <v>1131.361425262723</v>
+        <v>976.6518270891713</v>
       </c>
       <c r="X37" t="n">
-        <v>903.3718743647056</v>
+        <v>847.3337107649972</v>
       </c>
       <c r="Y37" t="n">
-        <v>781.2507297950189</v>
+        <v>725.2125661953104</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103806</v>
@@ -7157,61 +7157,61 @@
         <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464983</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.825297830734</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515857</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
         <v>2290.538235362621</v>
@@ -7248,28 +7248,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>698.2736995386226</v>
+        <v>740.9069705127577</v>
       </c>
       <c r="C40" t="n">
-        <v>628.0089511845591</v>
+        <v>670.642222158694</v>
       </c>
       <c r="D40" t="n">
-        <v>477.8923117722234</v>
+        <v>619.1970173202017</v>
       </c>
       <c r="E40" t="n">
-        <v>329.9792181898302</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O40" t="n">
         <v>1617.076751502319</v>
@@ -7363,19 +7363,19 @@
         <v>1711.184917632532</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1422.082050758176</v>
       </c>
       <c r="V40" t="n">
-        <v>1322.10716072584</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.68999068888</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X40" t="n">
-        <v>903.3718743647057</v>
+        <v>946.0051453388407</v>
       </c>
       <c r="Y40" t="n">
-        <v>781.250729795019</v>
+        <v>823.884000769154</v>
       </c>
     </row>
     <row r="41">
@@ -7391,61 +7391,61 @@
         <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464977</v>
+        <v>894.1397680464976</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307335</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515857</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049858</v>
@@ -7485,28 +7485,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>599.6022649647792</v>
+        <v>740.9069705127572</v>
       </c>
       <c r="C43" t="n">
-        <v>430.6660820368723</v>
+        <v>670.6422221586936</v>
       </c>
       <c r="D43" t="n">
-        <v>379.22087719838</v>
+        <v>619.1970173202011</v>
       </c>
       <c r="E43" t="n">
-        <v>329.9792181898302</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O43" t="n">
         <v>1617.076751502319</v>
@@ -7603,16 +7603,16 @@
         <v>1520.753485332019</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W43" t="n">
-        <v>1131.361425262723</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X43" t="n">
-        <v>1002.043308938549</v>
+        <v>946.0051453388405</v>
       </c>
       <c r="Y43" t="n">
-        <v>781.250729795019</v>
+        <v>823.8840007691537</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D44" t="n">
         <v>1181.256586070899</v>
@@ -7634,64 +7634,64 @@
         <v>894.1397680464979</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307335</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515857</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X44" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>642.2355359389144</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C46" t="n">
-        <v>529.3375166107157</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D46" t="n">
-        <v>477.8923117722234</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E46" t="n">
-        <v>329.9792181898302</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084554</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1280.777345210198</v>
       </c>
       <c r="V46" t="n">
-        <v>1266.068997126132</v>
+        <v>1026.092857004311</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.323261663015</v>
+        <v>835.3471215411935</v>
       </c>
       <c r="X46" t="n">
-        <v>946.0051453388409</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y46" t="n">
-        <v>823.8840007691541</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430626</v>
+        <v>157.2353108430637</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729001</v>
+        <v>184.4039433729017</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389595</v>
+        <v>191.4948909389615</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333058</v>
+        <v>181.085632533308</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830231</v>
+        <v>179.3553748830254</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383981</v>
+        <v>182.8301554384003</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586577</v>
+        <v>190.8908035586595</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266118</v>
+        <v>192.0103836266132</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875971</v>
+        <v>112.6562001875978</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372528</v>
+        <v>113.6031223372539</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672267</v>
+        <v>105.9629718672282</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253585</v>
+        <v>104.1013981253603</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677578</v>
+        <v>92.30246558677754</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359729</v>
+        <v>106.8829608359745</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798318</v>
+        <v>105.3113487798331</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615454</v>
+        <v>120.8212784615463</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564654</v>
+        <v>116.1755252564663</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085224</v>
+        <v>119.1996074085232</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140774</v>
+        <v>108.4284123140783</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530921</v>
+        <v>120.6694600530929</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662701</v>
+        <v>122.5080856662708</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>127.4994347185283</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>15.66901280726972</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9875,28 +9875,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>221.2853655744083</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>402.5500016878908</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-1.019628825815744e-12</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10121,13 +10121,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>277.2206841544144</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>277.220684154414</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10352,10 +10352,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>274.8351763665423</v>
       </c>
       <c r="M32" t="n">
-        <v>402.5500016878926</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.192202140984591e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719371</v>
+        <v>15.02219619719373</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>27.19765666106929</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>56.88518532171153</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830086</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302867</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115015</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358049</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292095</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184865</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>101.0004463964987</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>157.2874243119518</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579954</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>143.9311643165945</v>
       </c>
       <c r="W14" t="n">
-        <v>307.5396365830204</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913427</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>52.84514669702577</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>118.5009014358049</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271175</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>7.924762509651802</v>
       </c>
     </row>
     <row r="17">
@@ -23744,10 +23744,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>79.19514304898638</v>
       </c>
       <c r="H17" t="n">
-        <v>57.70643280170811</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23789,10 +23789,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116941</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23969,10 +23969,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>57.70643280170799</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116941</v>
+        <v>16.97188131598227</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-2.700062395888381e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1216190.561942401</v>
+        <v>1216190.561942402</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1104678.758514235</v>
+        <v>1104678.758514234</v>
       </c>
     </row>
     <row r="9">
@@ -26314,46 +26314,46 @@
         <v>307228.6270188894</v>
       </c>
       <c r="C2" t="n">
-        <v>307228.6270188894</v>
+        <v>307228.6270188895</v>
       </c>
       <c r="D2" t="n">
-        <v>307237.0011772298</v>
+        <v>307237.0011772299</v>
       </c>
       <c r="E2" t="n">
-        <v>273577.5003393659</v>
+        <v>273577.5003393658</v>
       </c>
       <c r="F2" t="n">
-        <v>273577.5003393658</v>
+        <v>273577.5003393656</v>
       </c>
       <c r="G2" t="n">
-        <v>297949.0579674511</v>
+        <v>297949.0579674512</v>
       </c>
       <c r="H2" t="n">
         <v>297949.0579674512</v>
       </c>
       <c r="I2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="J2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="K2" t="n">
         <v>307890.6636991064</v>
       </c>
       <c r="L2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.663699106</v>
       </c>
       <c r="M2" t="n">
-        <v>307890.6636991068</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="N2" t="n">
+        <v>307890.6636991061</v>
+      </c>
+      <c r="O2" t="n">
         <v>307890.6636991064</v>
       </c>
-      <c r="O2" t="n">
-        <v>307890.6636991063</v>
-      </c>
       <c r="P2" t="n">
-        <v>307890.6636991066</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.553675524</v>
+        <v>59764.5536755213</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163631</v>
+        <v>1089238.972163633</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487423</v>
+        <v>37580.10929487411</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983343</v>
+        <v>22821.46782983363</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179692</v>
+        <v>25409.43302179689</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927242</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>1.670698566158535e-10</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>430603.4278954646</v>
+        <v>430603.4278954656</v>
       </c>
       <c r="E4" t="n">
-        <v>40024.16194364968</v>
+        <v>40024.1619436497</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.16194364967</v>
+        <v>40024.1619436497</v>
       </c>
       <c r="G4" t="n">
-        <v>77052.3223050919</v>
+        <v>77052.32230509198</v>
       </c>
       <c r="H4" t="n">
-        <v>77052.32230509192</v>
+        <v>77052.32230509195</v>
       </c>
       <c r="I4" t="n">
         <v>90617.5102775438</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699581</v>
+        <v>88960.95519699575</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.95519699581</v>
+        <v>88960.95519699578</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.95519699578</v>
+        <v>88960.95519699575</v>
       </c>
       <c r="M4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818157</v>
       </c>
       <c r="N4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818166</v>
       </c>
       <c r="O4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818163</v>
       </c>
       <c r="P4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818163</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186639</v>
+        <v>35148.90543186632</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
         <v>80518.64312521491</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184212</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26497,10 +26497,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624987</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-178798.9635300758</v>
+        <v>-178803.3771079439</v>
       </c>
       <c r="C6" t="n">
-        <v>-178798.9635300758</v>
+        <v>-178803.3771079438</v>
       </c>
       <c r="D6" t="n">
-        <v>-218279.8858256252</v>
+        <v>-218284.2435757692</v>
       </c>
       <c r="E6" t="n">
-        <v>-932255.1241327411</v>
+        <v>-932483.878555142</v>
       </c>
       <c r="F6" t="n">
-        <v>156983.8480308896</v>
+        <v>156755.0936084912</v>
       </c>
       <c r="G6" t="n">
-        <v>102797.98324227</v>
+        <v>102731.7058707259</v>
       </c>
       <c r="H6" t="n">
-        <v>140378.0925371443</v>
+        <v>140311.8151655998</v>
       </c>
       <c r="I6" t="n">
-        <v>108715.157289887</v>
+        <v>108715.1572898869</v>
       </c>
       <c r="J6" t="n">
-        <v>104142.3338055076</v>
+        <v>104142.3338055074</v>
       </c>
       <c r="K6" t="n">
-        <v>129551.7668273044</v>
+        <v>129551.7668273046</v>
       </c>
       <c r="L6" t="n">
-        <v>91971.65753243033</v>
+        <v>91971.65753243008</v>
       </c>
       <c r="M6" t="n">
-        <v>-68979.93251804897</v>
+        <v>-68979.93251804961</v>
       </c>
       <c r="N6" t="n">
+        <v>133188.1674746744</v>
+      </c>
+      <c r="O6" t="n">
+        <v>133188.167474675</v>
+      </c>
+      <c r="P6" t="n">
         <v>133188.1674746746</v>
-      </c>
-      <c r="O6" t="n">
-        <v>133188.1674746747</v>
-      </c>
-      <c r="P6" t="n">
-        <v>133188.167474675</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790784</v>
+        <v>69.78465283790469</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,16 +26750,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26768,16 +26768,16 @@
         <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.22193528103</v>
+        <v>917.2219352810299</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208615</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951241</v>
+        <v>50.70958360951223</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790784</v>
+        <v>69.78465283790469</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.99204775539</v>
+        <v>1019.992047755394</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873693</v>
+        <v>85.82047987873705</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758451</v>
+        <v>97.1145259275844</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959706</v>
+        <v>648.4664495959714</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434004</v>
+        <v>336.6017083434006</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104725</v>
+        <v>199.660320410473</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780171</v>
+        <v>132.2465643780179</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036571</v>
+        <v>202.6272343036574</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448431</v>
+        <v>221.8677799448432</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672096</v>
+        <v>84.22861846672119</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987499</v>
+        <v>90.83829126987541</v>
       </c>
       <c r="S9" t="n">
-        <v>168.895076719229</v>
+        <v>168.8950767192291</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406285</v>
+        <v>161.1083300406286</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241796</v>
+        <v>151.6660875241798</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519066</v>
+        <v>84.46220888519106</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990033</v>
+        <v>7.649035050990694</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317029</v>
+        <v>75.62456067317078</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437876</v>
+        <v>171.6351144437879</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207383</v>
+        <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
-        <v>227.4079043982189</v>
+        <v>227.407904398219</v>
       </c>
       <c r="U10" t="n">
         <v>286.3121652922773</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712638</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571893</v>
+        <v>11.49558901075591</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.4955890107569</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292592</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571893</v>
+        <v>11.49558901075548</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V22" t="n">
-        <v>11.49558901075685</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571893</v>
+        <v>11.49558901075531</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571893</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.49558901075736</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859043</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859264</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292592</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859207</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810477</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810496</v>
+        <v>54.14548214544548</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="V37" t="n">
-        <v>55.47778196371107</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810477</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810477</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>55.47778196371149</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>55.47778196371107</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810496</v>
+        <v>55.47778196371205</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>55.47778196371112</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>97.68472022810481</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C46" t="n">
-        <v>55.47778196371118</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371169</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413379</v>
+        <v>0.2805413179413251</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366727</v>
+        <v>2.873093772366597</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993344</v>
+        <v>10.81556915993295</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362364</v>
+        <v>23.81059368362257</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208048</v>
+        <v>35.68590767207887</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102771</v>
+        <v>44.27152403102571</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396698</v>
+        <v>49.26060069396475</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356781</v>
+        <v>50.05768871356554</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328863</v>
+        <v>47.26805598328649</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661184</v>
+        <v>40.34219219661001</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783767</v>
+        <v>30.2953062478363</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313258</v>
+        <v>17.62255356313178</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588242</v>
+        <v>6.392835282587954</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288207</v>
+        <v>1.228069619288152</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530702</v>
+        <v>0.02244330543530601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796508</v>
+        <v>0.150102838179644</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840312</v>
+        <v>1.449677410840247</v>
       </c>
       <c r="I9" t="n">
-        <v>5.16801438469412</v>
+        <v>5.168014384693886</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906956</v>
+        <v>14.18142647906892</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710616</v>
+        <v>24.23831663710507</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264743</v>
+        <v>32.59140791264596</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665977</v>
+        <v>38.03263579665805</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655752</v>
+        <v>39.03924649655576</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847157</v>
+        <v>35.71328360846996</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449842</v>
+        <v>28.66305863449712</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447613</v>
+        <v>19.16049562447527</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768149</v>
+        <v>9.319542882767728</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608863</v>
+        <v>2.788094384608737</v>
       </c>
       <c r="T9" t="n">
-        <v>0.605019773189031</v>
+        <v>0.6050197731890037</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345454</v>
+        <v>0.009875186722345008</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486863</v>
+        <v>0.1258411772486806</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811048</v>
+        <v>1.118842466810997</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078675</v>
+        <v>3.784387403078504</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482118</v>
+        <v>8.896971231481716</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489282</v>
+        <v>14.62045677489216</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477287</v>
+        <v>18.70915102477202</v>
       </c>
       <c r="M10" t="n">
-        <v>19.7261765390827</v>
+        <v>19.72617653908181</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115579</v>
+        <v>19.25713215115492</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875068</v>
+        <v>17.78707839874987</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287747</v>
+        <v>15.21991838287678</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852408</v>
+        <v>10.53748257852361</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381837</v>
+        <v>5.658276933381582</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233923</v>
+        <v>2.193068516233823</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625684</v>
+        <v>0.5376850300625441</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564713</v>
+        <v>0.006864064213564403</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32549,7 +32549,7 @@
         <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.461131202643</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353158</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32707,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32944,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33655,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33807,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33892,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34044,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34129,40 +34129,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34281,43 +34281,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019258</v>
+        <v>72.49856320019261</v>
       </c>
       <c r="K13" t="n">
         <v>232.9678061314459</v>
@@ -35580,7 +35580,7 @@
         <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
         <v>261.8772177322368</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019258</v>
+        <v>72.49856320019263</v>
       </c>
       <c r="K16" t="n">
         <v>232.9678061314459</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M16" t="n">
         <v>374.5535259806102</v>
@@ -35817,7 +35817,7 @@
         <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
         <v>261.8772177322368</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597632</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609568</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>318.286435687241</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>471.2591271996019</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K26" t="n">
-        <v>558.4766521298088</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>941.4711175181177</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316589</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629101</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861328</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637031</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,13 +36841,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>829.5225195673258</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737858</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -37072,10 +37072,10 @@
         <v>337.1912865554006</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923323</v>
+        <v>730.4252907588746</v>
       </c>
       <c r="M32" t="n">
-        <v>941.4711175181195</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37084,7 +37084,7 @@
         <v>508.0530008882193</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908547</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037196</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120764</v>
@@ -37245,7 +37245,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.794304803719</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597692</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
